--- a/medicine/Mort/Krasny_Bor_(Carélie)/Krasny_Bor_(Carélie).xlsx
+++ b/medicine/Mort/Krasny_Bor_(Carélie)/Krasny_Bor_(Carélie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Krasny_Bor_(Car%C3%A9lie)</t>
+          <t>Krasny_Bor_(Carélie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Krasny Bor (en russe : Красный бор, en carélien : Punainen kangas) est un massif forestier situé dans la république de Carélie en Russie.
-Le massif est situé au 19e kilomètre de la route R19 (fi) Petrozavodsk-Voznesenye[1],[2].
+Le massif est situé au 19e kilomètre de la route R19 (fi) Petrozavodsk-Voznesenye,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Krasny_Bor_(Car%C3%A9lie)</t>
+          <t>Krasny_Bor_(Carélie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Exécutions de masse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Krasnyi bor est un lieu d'exécution de masse en 1997 par le NKVD pendant les grandes purges de Joseph Staline.
-L'endroit a été trouvé par Youri Alexeyevitch Dmitriev de l'organisation Memorial en Carélie[3],[4] .
+L'endroit a été trouvé par Youri Alexeyevitch Dmitriev de l'organisation Memorial en Carélie, .
 Le site d'inhumation couvre une superficie d'environ 350 mètres sur 150 mètres. Selon les rapports d'exécution des anciennes archives du KGB pour la Carélie, 1 193 personnes y ont été abattues et enterrées : 580 Finlandais, 432 Caréliens, 136 Russes et 45 personnes d'autres nationalités. Les fusillades ont eu lieu du 9 août au 15 septembre 1937 et du 26 septembre au 2 octobre 1938.
 Les victimes finlandaises ont été ciblées par l'opération finlandaise du NKVD.
 </t>
